--- a/data/Base.xlsx
+++ b/data/Base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t xml:space="preserve">Ticker</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Underlying</t>
   </si>
   <si>
+    <t xml:space="preserve">Mx Instrument</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCH1C 3000</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t xml:space="preserve">SCH1</t>
   </si>
   <si>
+    <t xml:space="preserve">AUX OPT JUN21</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCH1C 3500</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">S M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEEDER CATTLE SEP21</t>
   </si>
   <si>
     <t xml:space="preserve">S J1C 3400</t>
@@ -203,10 +212,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -239,22 +248,25 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>3000</v>
@@ -263,24 +275,27 @@
         <v>44342</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>3500</v>
@@ -289,24 +304,27 @@
         <v>44342</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>3600</v>
@@ -315,24 +333,27 @@
         <v>44342</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>2900</v>
@@ -341,24 +362,27 @@
         <v>44342</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>2800</v>
@@ -367,24 +391,27 @@
         <v>44342</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>3300</v>
@@ -393,24 +420,27 @@
         <v>44403</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>3400</v>
@@ -419,24 +449,27 @@
         <v>44403</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>3500</v>
@@ -445,24 +478,27 @@
         <v>44403</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>2900</v>
@@ -471,7 +507,10 @@
         <v>44403</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
